--- a/Financials/Yearly/SEOAY_YR_FIN.xlsx
+++ b/Financials/Yearly/SEOAY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE7AF46-2068-43BE-9915-B225A7AD41C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEOAY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,140 +686,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11790900</v>
+        <v>11765200</v>
       </c>
       <c r="E8" s="3">
-        <v>11505700</v>
+        <v>11270400</v>
       </c>
       <c r="F8" s="3">
-        <v>11785100</v>
+        <v>10997700</v>
       </c>
       <c r="G8" s="3">
-        <v>11988100</v>
+        <v>11264800</v>
       </c>
       <c r="H8" s="3">
-        <v>12399000</v>
+        <v>11458900</v>
       </c>
       <c r="I8" s="3">
-        <v>12694800</v>
+        <v>11851600</v>
       </c>
       <c r="J8" s="3">
+        <v>12134300</v>
+      </c>
+      <c r="K8" s="3">
         <v>12870700</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8081700</v>
+        <v>7813500</v>
       </c>
       <c r="E9" s="3">
-        <v>7916200</v>
+        <v>7724900</v>
       </c>
       <c r="F9" s="3">
-        <v>8169700</v>
+        <v>7566700</v>
       </c>
       <c r="G9" s="3">
-        <v>8428000</v>
+        <v>7809100</v>
       </c>
       <c r="H9" s="3">
-        <v>9034800</v>
+        <v>8055900</v>
       </c>
       <c r="I9" s="3">
-        <v>9369400</v>
+        <v>8636000</v>
       </c>
       <c r="J9" s="3">
+        <v>8955700</v>
+      </c>
+      <c r="K9" s="3">
         <v>9416900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3709200</v>
+        <v>3951600</v>
       </c>
       <c r="E10" s="3">
-        <v>3589500</v>
+        <v>3545500</v>
       </c>
       <c r="F10" s="3">
-        <v>3615300</v>
+        <v>3431000</v>
       </c>
       <c r="G10" s="3">
-        <v>3560200</v>
+        <v>3455700</v>
       </c>
       <c r="H10" s="3">
-        <v>3364100</v>
+        <v>3403000</v>
       </c>
       <c r="I10" s="3">
-        <v>3325400</v>
+        <v>3215600</v>
       </c>
       <c r="J10" s="3">
+        <v>3178600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3453800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,35 +843,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>99800</v>
+        <v>116700</v>
       </c>
       <c r="E12" s="3">
-        <v>93900</v>
+        <v>95400</v>
       </c>
       <c r="F12" s="3">
-        <v>77500</v>
+        <v>89800</v>
       </c>
       <c r="G12" s="3">
-        <v>75100</v>
+        <v>74100</v>
       </c>
       <c r="H12" s="3">
-        <v>74000</v>
+        <v>71800</v>
       </c>
       <c r="I12" s="3">
-        <v>75100</v>
+        <v>70700</v>
       </c>
       <c r="J12" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K12" s="3">
         <v>76800</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,63 +900,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>112700</v>
+        <v>77400</v>
       </c>
       <c r="E14" s="3">
-        <v>368600</v>
+        <v>107700</v>
       </c>
       <c r="F14" s="3">
-        <v>416700</v>
+        <v>352300</v>
       </c>
       <c r="G14" s="3">
-        <v>401400</v>
+        <v>398300</v>
       </c>
       <c r="H14" s="3">
-        <v>491800</v>
+        <v>383700</v>
       </c>
       <c r="I14" s="3">
-        <v>-44400</v>
+        <v>470100</v>
       </c>
       <c r="J14" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="K14" s="3">
         <v>13300</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>568100</v>
+        <v>537400</v>
       </c>
       <c r="E15" s="3">
-        <v>591600</v>
+        <v>543000</v>
       </c>
       <c r="F15" s="3">
-        <v>612700</v>
+        <v>565500</v>
       </c>
       <c r="G15" s="3">
-        <v>631500</v>
+        <v>585700</v>
       </c>
       <c r="H15" s="3">
-        <v>2105800</v>
+        <v>603600</v>
       </c>
       <c r="I15" s="3">
-        <v>644100</v>
+        <v>2012900</v>
       </c>
       <c r="J15" s="3">
+        <v>615600</v>
+      </c>
+      <c r="K15" s="3">
         <v>658900</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -914,62 +974,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10729800</v>
+        <v>10205600</v>
       </c>
       <c r="E17" s="3">
-        <v>10586600</v>
+        <v>10256100</v>
       </c>
       <c r="F17" s="3">
-        <v>10571300</v>
+        <v>10119200</v>
       </c>
       <c r="G17" s="3">
-        <v>11518600</v>
+        <v>10104600</v>
       </c>
       <c r="H17" s="3">
-        <v>12340300</v>
+        <v>11010100</v>
       </c>
       <c r="I17" s="3">
-        <v>11871900</v>
+        <v>11795500</v>
       </c>
       <c r="J17" s="3">
+        <v>11347800</v>
+      </c>
+      <c r="K17" s="3">
         <v>11979400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1061100</v>
+        <v>1559600</v>
       </c>
       <c r="E18" s="3">
-        <v>919100</v>
+        <v>1014300</v>
       </c>
       <c r="F18" s="3">
-        <v>1213700</v>
+        <v>878500</v>
       </c>
       <c r="G18" s="3">
-        <v>469500</v>
+        <v>1160100</v>
       </c>
       <c r="H18" s="3">
-        <v>58700</v>
+        <v>448800</v>
       </c>
       <c r="I18" s="3">
-        <v>822800</v>
+        <v>56100</v>
       </c>
       <c r="J18" s="3">
+        <v>786500</v>
+      </c>
+      <c r="K18" s="3">
         <v>891300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,143 +1048,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-24700</v>
+        <v>-48200</v>
       </c>
       <c r="E20" s="3">
-        <v>-105600</v>
+        <v>-23600</v>
       </c>
       <c r="F20" s="3">
-        <v>-48100</v>
+        <v>-101000</v>
       </c>
       <c r="G20" s="3">
-        <v>-82200</v>
+        <v>-46000</v>
       </c>
       <c r="H20" s="3">
-        <v>260600</v>
+        <v>-78500</v>
       </c>
       <c r="I20" s="3">
-        <v>392500</v>
+        <v>249100</v>
       </c>
       <c r="J20" s="3">
+        <v>375200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-225400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1641400</v>
+        <v>2050000</v>
       </c>
       <c r="E21" s="3">
-        <v>1280900</v>
+        <v>1569900</v>
       </c>
       <c r="F21" s="3">
-        <v>2061800</v>
+        <v>1225200</v>
       </c>
       <c r="G21" s="3">
-        <v>1287100</v>
+        <v>1972300</v>
       </c>
       <c r="H21" s="3">
-        <v>1715900</v>
+        <v>1231800</v>
       </c>
       <c r="I21" s="3">
-        <v>1840300</v>
+        <v>1642400</v>
       </c>
       <c r="J21" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1338500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>165500</v>
+        <v>153700</v>
       </c>
       <c r="E22" s="3">
-        <v>178400</v>
+        <v>158200</v>
       </c>
       <c r="F22" s="3">
-        <v>210100</v>
+        <v>170500</v>
       </c>
       <c r="G22" s="3">
-        <v>246500</v>
+        <v>200800</v>
       </c>
       <c r="H22" s="3">
-        <v>541100</v>
+        <v>235600</v>
       </c>
       <c r="I22" s="3">
-        <v>650800</v>
+        <v>517200</v>
       </c>
       <c r="J22" s="3">
+        <v>622000</v>
+      </c>
+      <c r="K22" s="3">
         <v>171800</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>871000</v>
+        <v>1357600</v>
       </c>
       <c r="E23" s="3">
-        <v>635000</v>
+        <v>832500</v>
       </c>
       <c r="F23" s="3">
-        <v>955500</v>
+        <v>607000</v>
       </c>
       <c r="G23" s="3">
-        <v>140900</v>
+        <v>913300</v>
       </c>
       <c r="H23" s="3">
-        <v>-221900</v>
+        <v>134600</v>
       </c>
       <c r="I23" s="3">
-        <v>564600</v>
+        <v>-212100</v>
       </c>
       <c r="J23" s="3">
+        <v>539700</v>
+      </c>
+      <c r="K23" s="3">
         <v>494100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>150200</v>
+        <v>248000</v>
       </c>
       <c r="E24" s="3">
-        <v>157300</v>
+        <v>143600</v>
       </c>
       <c r="F24" s="3">
-        <v>36400</v>
+        <v>150300</v>
       </c>
       <c r="G24" s="3">
-        <v>35200</v>
+        <v>34800</v>
       </c>
       <c r="H24" s="3">
-        <v>-138500</v>
+        <v>33700</v>
       </c>
       <c r="I24" s="3">
-        <v>-10600</v>
+        <v>-132400</v>
       </c>
       <c r="J24" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K24" s="3">
         <v>92400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1142,63 +1225,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>720700</v>
+        <v>1109600</v>
       </c>
       <c r="E26" s="3">
-        <v>477700</v>
+        <v>688900</v>
       </c>
       <c r="F26" s="3">
-        <v>919100</v>
+        <v>456600</v>
       </c>
       <c r="G26" s="3">
-        <v>105600</v>
+        <v>878500</v>
       </c>
       <c r="H26" s="3">
-        <v>-83300</v>
+        <v>101000</v>
       </c>
       <c r="I26" s="3">
-        <v>575200</v>
+        <v>-79700</v>
       </c>
       <c r="J26" s="3">
+        <v>549800</v>
+      </c>
+      <c r="K26" s="3">
         <v>401700</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>733600</v>
+        <v>1136600</v>
       </c>
       <c r="E27" s="3">
-        <v>543500</v>
+        <v>701200</v>
       </c>
       <c r="F27" s="3">
-        <v>947300</v>
+        <v>519500</v>
       </c>
       <c r="G27" s="3">
-        <v>116200</v>
+        <v>905400</v>
       </c>
       <c r="H27" s="3">
-        <v>-62200</v>
+        <v>111100</v>
       </c>
       <c r="I27" s="3">
-        <v>563400</v>
+        <v>-59500</v>
       </c>
       <c r="J27" s="3">
+        <v>538600</v>
+      </c>
+      <c r="K27" s="3">
         <v>398700</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1223,9 +1315,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1250,9 +1345,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1277,9 +1375,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1304,63 +1405,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>24700</v>
+        <v>48200</v>
       </c>
       <c r="E32" s="3">
-        <v>105600</v>
+        <v>23600</v>
       </c>
       <c r="F32" s="3">
-        <v>48100</v>
+        <v>101000</v>
       </c>
       <c r="G32" s="3">
-        <v>82200</v>
+        <v>46000</v>
       </c>
       <c r="H32" s="3">
-        <v>-260600</v>
+        <v>78500</v>
       </c>
       <c r="I32" s="3">
-        <v>-392500</v>
+        <v>-249100</v>
       </c>
       <c r="J32" s="3">
+        <v>-375200</v>
+      </c>
+      <c r="K32" s="3">
         <v>225400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>733600</v>
+        <v>1136600</v>
       </c>
       <c r="E33" s="3">
-        <v>543500</v>
+        <v>701200</v>
       </c>
       <c r="F33" s="3">
-        <v>947300</v>
+        <v>519500</v>
       </c>
       <c r="G33" s="3">
-        <v>116200</v>
+        <v>905400</v>
       </c>
       <c r="H33" s="3">
-        <v>-62200</v>
+        <v>111100</v>
       </c>
       <c r="I33" s="3">
-        <v>563400</v>
+        <v>-59500</v>
       </c>
       <c r="J33" s="3">
+        <v>538600</v>
+      </c>
+      <c r="K33" s="3">
         <v>398700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1385,68 +1495,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>733600</v>
+        <v>1136600</v>
       </c>
       <c r="E35" s="3">
-        <v>543500</v>
+        <v>701200</v>
       </c>
       <c r="F35" s="3">
-        <v>947300</v>
+        <v>519500</v>
       </c>
       <c r="G35" s="3">
-        <v>116200</v>
+        <v>905400</v>
       </c>
       <c r="H35" s="3">
-        <v>-62200</v>
+        <v>111100</v>
       </c>
       <c r="I35" s="3">
-        <v>563400</v>
+        <v>-59500</v>
       </c>
       <c r="J35" s="3">
+        <v>538600</v>
+      </c>
+      <c r="K35" s="3">
         <v>398700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1458,8 +1577,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1471,35 +1591,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>712500</v>
+        <v>1267800</v>
       </c>
       <c r="E41" s="3">
-        <v>1118600</v>
+        <v>681000</v>
       </c>
       <c r="F41" s="3">
-        <v>948400</v>
+        <v>1069300</v>
       </c>
       <c r="G41" s="3">
-        <v>1697300</v>
+        <v>906600</v>
       </c>
       <c r="H41" s="3">
-        <v>2433300</v>
+        <v>1622400</v>
       </c>
       <c r="I41" s="3">
-        <v>2254900</v>
+        <v>2325900</v>
       </c>
       <c r="J41" s="3">
+        <v>2155300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1336700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1524,198 +1648,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1513000</v>
+        <v>1632500</v>
       </c>
       <c r="E43" s="3">
-        <v>1416800</v>
+        <v>1446200</v>
       </c>
       <c r="F43" s="3">
-        <v>1474300</v>
+        <v>1354200</v>
       </c>
       <c r="G43" s="3">
-        <v>1703200</v>
+        <v>1409200</v>
       </c>
       <c r="H43" s="3">
-        <v>3683400</v>
+        <v>1628000</v>
       </c>
       <c r="I43" s="3">
-        <v>4412400</v>
+        <v>3520800</v>
       </c>
       <c r="J43" s="3">
+        <v>4217600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2157600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1550600</v>
+        <v>1758200</v>
       </c>
       <c r="E44" s="3">
-        <v>1579900</v>
+        <v>1482100</v>
       </c>
       <c r="F44" s="3">
-        <v>1611600</v>
+        <v>1510200</v>
       </c>
       <c r="G44" s="3">
-        <v>1646900</v>
+        <v>1540500</v>
       </c>
       <c r="H44" s="3">
-        <v>3392300</v>
+        <v>1574200</v>
       </c>
       <c r="I44" s="3">
-        <v>3483300</v>
+        <v>3242600</v>
       </c>
       <c r="J44" s="3">
+        <v>3329500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1794400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>139700</v>
+        <v>107700</v>
       </c>
       <c r="E45" s="3">
-        <v>142000</v>
+        <v>133500</v>
       </c>
       <c r="F45" s="3">
-        <v>149100</v>
+        <v>135800</v>
       </c>
       <c r="G45" s="3">
-        <v>135000</v>
+        <v>142500</v>
       </c>
       <c r="H45" s="3">
-        <v>154900</v>
+        <v>129000</v>
       </c>
       <c r="I45" s="3">
-        <v>198600</v>
+        <v>148100</v>
       </c>
       <c r="J45" s="3">
+        <v>189800</v>
+      </c>
+      <c r="K45" s="3">
         <v>122300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>3915800</v>
+        <v>4766200</v>
       </c>
       <c r="E46" s="3">
-        <v>4257400</v>
+        <v>3743000</v>
       </c>
       <c r="F46" s="3">
-        <v>4183500</v>
+        <v>4069500</v>
       </c>
       <c r="G46" s="3">
-        <v>5182400</v>
+        <v>3998800</v>
       </c>
       <c r="H46" s="3">
-        <v>6142500</v>
+        <v>4953600</v>
       </c>
       <c r="I46" s="3">
-        <v>6308100</v>
+        <v>5871400</v>
       </c>
       <c r="J46" s="3">
+        <v>6029600</v>
+      </c>
+      <c r="K46" s="3">
         <v>5411000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2360500</v>
+        <v>2506500</v>
       </c>
       <c r="E47" s="3">
-        <v>2240800</v>
+        <v>2256300</v>
       </c>
       <c r="F47" s="3">
-        <v>2109300</v>
+        <v>2141900</v>
       </c>
       <c r="G47" s="3">
-        <v>1878100</v>
+        <v>2016200</v>
       </c>
       <c r="H47" s="3">
-        <v>1718500</v>
+        <v>1795200</v>
       </c>
       <c r="I47" s="3">
-        <v>1903900</v>
+        <v>1642600</v>
       </c>
       <c r="J47" s="3">
+        <v>1819900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3240400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>6758800</v>
+        <v>6385200</v>
       </c>
       <c r="E48" s="3">
-        <v>7160200</v>
+        <v>6460400</v>
       </c>
       <c r="F48" s="3">
-        <v>7356300</v>
+        <v>6844100</v>
       </c>
       <c r="G48" s="3">
-        <v>7115600</v>
+        <v>7031500</v>
       </c>
       <c r="H48" s="3">
-        <v>14331000</v>
+        <v>6801500</v>
       </c>
       <c r="I48" s="3">
-        <v>14448900</v>
+        <v>13698400</v>
       </c>
       <c r="J48" s="3">
+        <v>13811000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6051100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>561100</v>
+        <v>586800</v>
       </c>
       <c r="E49" s="3">
-        <v>507100</v>
+        <v>536300</v>
       </c>
       <c r="F49" s="3">
-        <v>497700</v>
+        <v>484700</v>
       </c>
       <c r="G49" s="3">
-        <v>500000</v>
+        <v>475700</v>
       </c>
       <c r="H49" s="3">
-        <v>346300</v>
+        <v>478000</v>
       </c>
       <c r="I49" s="3">
-        <v>387500</v>
+        <v>331000</v>
       </c>
       <c r="J49" s="3">
+        <v>370400</v>
+      </c>
+      <c r="K49" s="3">
         <v>381600</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1740,9 +1888,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1767,36 +1918,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>219500</v>
+        <v>171700</v>
       </c>
       <c r="E52" s="3">
-        <v>302800</v>
+        <v>209800</v>
       </c>
       <c r="F52" s="3">
-        <v>362700</v>
+        <v>289500</v>
       </c>
       <c r="G52" s="3">
-        <v>403800</v>
+        <v>346700</v>
       </c>
       <c r="H52" s="3">
-        <v>342800</v>
+        <v>386000</v>
       </c>
       <c r="I52" s="3">
-        <v>267600</v>
+        <v>327600</v>
       </c>
       <c r="J52" s="3">
+        <v>255800</v>
+      </c>
+      <c r="K52" s="3">
         <v>174300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1821,36 +1978,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>13815700</v>
+        <v>14416400</v>
       </c>
       <c r="E54" s="3">
-        <v>14468400</v>
+        <v>13205800</v>
       </c>
       <c r="F54" s="3">
-        <v>14509500</v>
+        <v>13829600</v>
       </c>
       <c r="G54" s="3">
-        <v>15079900</v>
+        <v>13868900</v>
       </c>
       <c r="H54" s="3">
-        <v>15790100</v>
+        <v>14414200</v>
       </c>
       <c r="I54" s="3">
-        <v>16777300</v>
+        <v>15093000</v>
       </c>
       <c r="J54" s="3">
+        <v>16036600</v>
+      </c>
+      <c r="K54" s="3">
         <v>15258500</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1862,8 +2025,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1875,170 +2039,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1569400</v>
+        <v>1550600</v>
       </c>
       <c r="E57" s="3">
-        <v>1454400</v>
+        <v>1500100</v>
       </c>
       <c r="F57" s="3">
-        <v>1412100</v>
+        <v>1390100</v>
       </c>
       <c r="G57" s="3">
-        <v>1287700</v>
+        <v>1349800</v>
       </c>
       <c r="H57" s="3">
-        <v>1328800</v>
+        <v>1230800</v>
       </c>
       <c r="I57" s="3">
-        <v>1251800</v>
+        <v>1270100</v>
       </c>
       <c r="J57" s="3">
+        <v>1196500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1173600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1055300</v>
+        <v>1089500</v>
       </c>
       <c r="E58" s="3">
-        <v>1183200</v>
+        <v>1008700</v>
       </c>
       <c r="F58" s="3">
-        <v>846300</v>
+        <v>1131000</v>
       </c>
       <c r="G58" s="3">
-        <v>1601100</v>
+        <v>809000</v>
       </c>
       <c r="H58" s="3">
-        <v>1670300</v>
+        <v>1530400</v>
       </c>
       <c r="I58" s="3">
-        <v>1774200</v>
+        <v>1596600</v>
       </c>
       <c r="J58" s="3">
+        <v>1695900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1213700</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>853400</v>
+        <v>890900</v>
       </c>
       <c r="E59" s="3">
-        <v>871000</v>
+        <v>815700</v>
       </c>
       <c r="F59" s="3">
-        <v>928500</v>
+        <v>832500</v>
       </c>
       <c r="G59" s="3">
-        <v>781800</v>
+        <v>887500</v>
       </c>
       <c r="H59" s="3">
-        <v>2965000</v>
+        <v>747200</v>
       </c>
       <c r="I59" s="3">
-        <v>2766900</v>
+        <v>2834100</v>
       </c>
       <c r="J59" s="3">
+        <v>2644800</v>
+      </c>
+      <c r="K59" s="3">
         <v>883200</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3478000</v>
+        <v>3530900</v>
       </c>
       <c r="E60" s="3">
+        <v>3324500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3353600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3046200</v>
+      </c>
+      <c r="H60" s="3">
         <v>3508500</v>
       </c>
-      <c r="F60" s="3">
-        <v>3186900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3670500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3682200</v>
-      </c>
       <c r="I60" s="3">
-        <v>3096500</v>
+        <v>3519700</v>
       </c>
       <c r="J60" s="3">
+        <v>2959800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3270500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2401600</v>
+        <v>2541300</v>
       </c>
       <c r="E61" s="3">
-        <v>3116500</v>
+        <v>2295600</v>
       </c>
       <c r="F61" s="3">
-        <v>3922900</v>
+        <v>2978900</v>
       </c>
       <c r="G61" s="3">
-        <v>4143500</v>
+        <v>3749700</v>
       </c>
       <c r="H61" s="3">
-        <v>4931200</v>
+        <v>3960600</v>
       </c>
       <c r="I61" s="3">
-        <v>5633100</v>
+        <v>4713500</v>
       </c>
       <c r="J61" s="3">
+        <v>5384400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3919800</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>828700</v>
+        <v>791000</v>
       </c>
       <c r="E62" s="3">
-        <v>955500</v>
+        <v>792100</v>
       </c>
       <c r="F62" s="3">
-        <v>928500</v>
+        <v>913300</v>
       </c>
       <c r="G62" s="3">
-        <v>1118600</v>
+        <v>887500</v>
       </c>
       <c r="H62" s="3">
-        <v>987200</v>
+        <v>1069300</v>
       </c>
       <c r="I62" s="3">
-        <v>1333400</v>
+        <v>943600</v>
       </c>
       <c r="J62" s="3">
+        <v>1274600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1072500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2063,9 +2246,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,9 +2276,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2117,36 +2306,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6763500</v>
+        <v>6883400</v>
       </c>
       <c r="E66" s="3">
-        <v>7653200</v>
+        <v>6464900</v>
       </c>
       <c r="F66" s="3">
-        <v>8185000</v>
+        <v>7315400</v>
       </c>
       <c r="G66" s="3">
-        <v>9128700</v>
+        <v>7823600</v>
       </c>
       <c r="H66" s="3">
-        <v>9671000</v>
+        <v>8725700</v>
       </c>
       <c r="I66" s="3">
-        <v>10004400</v>
+        <v>9244100</v>
       </c>
       <c r="J66" s="3">
+        <v>9562700</v>
+      </c>
+      <c r="K66" s="3">
         <v>8365000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2158,8 +2353,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2184,9 +2380,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2211,9 +2410,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2238,9 +2440,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2265,36 +2470,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>4735100</v>
+        <v>5281200</v>
       </c>
       <c r="E72" s="3">
-        <v>4284400</v>
+        <v>4526100</v>
       </c>
       <c r="F72" s="3">
-        <v>4102500</v>
+        <v>4095300</v>
       </c>
       <c r="G72" s="3">
-        <v>3406400</v>
+        <v>3921400</v>
       </c>
       <c r="H72" s="3">
-        <v>3966300</v>
+        <v>3256000</v>
       </c>
       <c r="I72" s="3">
-        <v>7986000</v>
+        <v>3791200</v>
       </c>
       <c r="J72" s="3">
+        <v>7633500</v>
+      </c>
+      <c r="K72" s="3">
         <v>3874600</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2319,9 +2530,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2346,9 +2560,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2373,36 +2590,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>7052300</v>
+        <v>7533000</v>
       </c>
       <c r="E76" s="3">
-        <v>6815100</v>
+        <v>6740900</v>
       </c>
       <c r="F76" s="3">
-        <v>6324500</v>
+        <v>6514300</v>
       </c>
       <c r="G76" s="3">
-        <v>5951200</v>
+        <v>6045300</v>
       </c>
       <c r="H76" s="3">
-        <v>6119100</v>
+        <v>5688500</v>
       </c>
       <c r="I76" s="3">
-        <v>6772900</v>
+        <v>5848900</v>
       </c>
       <c r="J76" s="3">
+        <v>6473900</v>
+      </c>
+      <c r="K76" s="3">
         <v>6893400</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2427,68 +2650,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>733600</v>
+        <v>1136600</v>
       </c>
       <c r="E81" s="3">
-        <v>543500</v>
+        <v>701200</v>
       </c>
       <c r="F81" s="3">
-        <v>947300</v>
+        <v>519500</v>
       </c>
       <c r="G81" s="3">
-        <v>116200</v>
+        <v>905400</v>
       </c>
       <c r="H81" s="3">
-        <v>-62200</v>
+        <v>111100</v>
       </c>
       <c r="I81" s="3">
-        <v>563400</v>
+        <v>-59500</v>
       </c>
       <c r="J81" s="3">
+        <v>538600</v>
+      </c>
+      <c r="K81" s="3">
         <v>398700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2500,35 +2732,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>604500</v>
+        <v>537400</v>
       </c>
       <c r="E83" s="3">
-        <v>467200</v>
+        <v>577800</v>
       </c>
       <c r="F83" s="3">
-        <v>895600</v>
+        <v>446600</v>
       </c>
       <c r="G83" s="3">
-        <v>899100</v>
+        <v>856100</v>
       </c>
       <c r="H83" s="3">
-        <v>1395700</v>
+        <v>859400</v>
       </c>
       <c r="I83" s="3">
-        <v>624500</v>
+        <v>1334000</v>
       </c>
       <c r="J83" s="3">
+        <v>596900</v>
+      </c>
+      <c r="K83" s="3">
         <v>672100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2553,9 +2789,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2580,9 +2819,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2607,9 +2849,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2634,9 +2879,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2661,36 +2909,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1410900</v>
+        <v>1225200</v>
       </c>
       <c r="E89" s="3">
-        <v>1596400</v>
+        <v>1348600</v>
       </c>
       <c r="F89" s="3">
-        <v>1427400</v>
+        <v>1525900</v>
       </c>
       <c r="G89" s="3">
-        <v>1042300</v>
+        <v>1364300</v>
       </c>
       <c r="H89" s="3">
-        <v>1191400</v>
+        <v>996300</v>
       </c>
       <c r="I89" s="3">
-        <v>1098700</v>
+        <v>1138800</v>
       </c>
       <c r="J89" s="3">
+        <v>1050200</v>
+      </c>
+      <c r="K89" s="3">
         <v>817900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2702,35 +2956,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-772400</v>
+        <v>-589000</v>
       </c>
       <c r="E91" s="3">
-        <v>-936700</v>
+        <v>-738300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1122200</v>
+        <v>-895300</v>
       </c>
       <c r="G91" s="3">
-        <v>-923800</v>
+        <v>-1072600</v>
       </c>
       <c r="H91" s="3">
-        <v>-868600</v>
+        <v>-883000</v>
       </c>
       <c r="I91" s="3">
-        <v>-658500</v>
+        <v>-830300</v>
       </c>
       <c r="J91" s="3">
+        <v>-629400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-460600</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2755,9 +3013,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2782,36 +3043,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-817000</v>
+        <v>-557600</v>
       </c>
       <c r="E94" s="3">
-        <v>-532900</v>
+        <v>-780900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1113900</v>
+        <v>-509400</v>
       </c>
       <c r="G94" s="3">
-        <v>-875700</v>
+        <v>-1064800</v>
       </c>
       <c r="H94" s="3">
-        <v>-624500</v>
+        <v>-837000</v>
       </c>
       <c r="I94" s="3">
-        <v>-802900</v>
+        <v>-596900</v>
       </c>
       <c r="J94" s="3">
+        <v>-767400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-639800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2823,35 +3090,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-342800</v>
+        <v>-362400</v>
       </c>
       <c r="E96" s="3">
-        <v>-305200</v>
+        <v>-327600</v>
       </c>
       <c r="F96" s="3">
-        <v>-278200</v>
+        <v>-291700</v>
       </c>
       <c r="G96" s="3">
-        <v>-278200</v>
+        <v>-265900</v>
       </c>
       <c r="H96" s="3">
-        <v>-278200</v>
+        <v>-265900</v>
       </c>
       <c r="I96" s="3">
-        <v>-278200</v>
+        <v>-265900</v>
       </c>
       <c r="J96" s="3">
+        <v>-265900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-231500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2876,9 +3147,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2903,9 +3177,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2930,88 +3207,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-973100</v>
+        <v>-81900</v>
       </c>
       <c r="E100" s="3">
-        <v>-902700</v>
+        <v>-930100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1095200</v>
+        <v>-862800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1031800</v>
+        <v>-1046800</v>
       </c>
       <c r="H100" s="3">
-        <v>-366200</v>
+        <v>-986200</v>
       </c>
       <c r="I100" s="3">
-        <v>565800</v>
+        <v>-350100</v>
       </c>
       <c r="J100" s="3">
+        <v>540800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-107100</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-27000</v>
+        <v>4500</v>
       </c>
       <c r="E101" s="3">
-        <v>5900</v>
+        <v>-25800</v>
       </c>
       <c r="F101" s="3">
-        <v>34000</v>
+        <v>5600</v>
       </c>
       <c r="G101" s="3">
-        <v>140900</v>
+        <v>32500</v>
       </c>
       <c r="H101" s="3">
-        <v>-31700</v>
+        <v>134600</v>
       </c>
       <c r="I101" s="3">
-        <v>-27000</v>
+        <v>-30300</v>
       </c>
       <c r="J101" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-34400</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-406100</v>
+        <v>590200</v>
       </c>
       <c r="E102" s="3">
-        <v>166700</v>
+        <v>-388200</v>
       </c>
       <c r="F102" s="3">
-        <v>-747700</v>
+        <v>159300</v>
       </c>
       <c r="G102" s="3">
-        <v>-724200</v>
+        <v>-714700</v>
       </c>
       <c r="H102" s="3">
-        <v>169000</v>
+        <v>-692300</v>
       </c>
       <c r="I102" s="3">
-        <v>834600</v>
+        <v>161600</v>
       </c>
       <c r="J102" s="3">
+        <v>797700</v>
+      </c>
+      <c r="K102" s="3">
         <v>36600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/SEOAY_YR_FIN.xlsx
+++ b/Financials/Yearly/SEOAY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE7AF46-2068-43BE-9915-B225A7AD41C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SEOAY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -296,12 +295,15 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11765200</v>
+        <v>11513600</v>
       </c>
       <c r="E8" s="3">
-        <v>11270400</v>
+        <v>11029400</v>
       </c>
       <c r="F8" s="3">
-        <v>10997700</v>
+        <v>10762600</v>
       </c>
       <c r="G8" s="3">
-        <v>11264800</v>
+        <v>11023900</v>
       </c>
       <c r="H8" s="3">
-        <v>11458900</v>
+        <v>11213900</v>
       </c>
       <c r="I8" s="3">
-        <v>11851600</v>
+        <v>11598200</v>
       </c>
       <c r="J8" s="3">
-        <v>12134300</v>
+        <v>11874900</v>
       </c>
       <c r="K8" s="3">
         <v>12870700</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7813500</v>
+        <v>7646500</v>
       </c>
       <c r="E9" s="3">
-        <v>7724900</v>
+        <v>7559700</v>
       </c>
       <c r="F9" s="3">
-        <v>7566700</v>
+        <v>7404900</v>
       </c>
       <c r="G9" s="3">
-        <v>7809100</v>
+        <v>7642100</v>
       </c>
       <c r="H9" s="3">
-        <v>8055900</v>
+        <v>7883600</v>
       </c>
       <c r="I9" s="3">
-        <v>8636000</v>
+        <v>8451300</v>
       </c>
       <c r="J9" s="3">
-        <v>8955700</v>
+        <v>8764200</v>
       </c>
       <c r="K9" s="3">
         <v>9416900</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3951600</v>
+        <v>3867200</v>
       </c>
       <c r="E10" s="3">
-        <v>3545500</v>
+        <v>3469700</v>
       </c>
       <c r="F10" s="3">
-        <v>3431000</v>
+        <v>3357700</v>
       </c>
       <c r="G10" s="3">
-        <v>3455700</v>
+        <v>3381800</v>
       </c>
       <c r="H10" s="3">
-        <v>3403000</v>
+        <v>3330200</v>
       </c>
       <c r="I10" s="3">
-        <v>3215600</v>
+        <v>3146900</v>
       </c>
       <c r="J10" s="3">
-        <v>3178600</v>
+        <v>3110600</v>
       </c>
       <c r="K10" s="3">
         <v>3453800</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>116700</v>
+        <v>114200</v>
       </c>
       <c r="E12" s="3">
-        <v>95400</v>
+        <v>93300</v>
       </c>
       <c r="F12" s="3">
-        <v>89800</v>
+        <v>87800</v>
       </c>
       <c r="G12" s="3">
-        <v>74100</v>
+        <v>72500</v>
       </c>
       <c r="H12" s="3">
-        <v>71800</v>
+        <v>70300</v>
       </c>
       <c r="I12" s="3">
-        <v>70700</v>
+        <v>69200</v>
       </c>
       <c r="J12" s="3">
-        <v>71800</v>
+        <v>70300</v>
       </c>
       <c r="K12" s="3">
         <v>76800</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>77400</v>
+        <v>75800</v>
       </c>
       <c r="E14" s="3">
-        <v>107700</v>
+        <v>105400</v>
       </c>
       <c r="F14" s="3">
-        <v>352300</v>
+        <v>344800</v>
       </c>
       <c r="G14" s="3">
-        <v>398300</v>
+        <v>389800</v>
       </c>
       <c r="H14" s="3">
-        <v>383700</v>
+        <v>375500</v>
       </c>
       <c r="I14" s="3">
-        <v>470100</v>
+        <v>460100</v>
       </c>
       <c r="J14" s="3">
-        <v>-42400</v>
+        <v>-41500</v>
       </c>
       <c r="K14" s="3">
         <v>13300</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>537400</v>
+        <v>525900</v>
       </c>
       <c r="E15" s="3">
-        <v>543000</v>
+        <v>531400</v>
       </c>
       <c r="F15" s="3">
-        <v>565500</v>
+        <v>553400</v>
       </c>
       <c r="G15" s="3">
-        <v>585700</v>
+        <v>573200</v>
       </c>
       <c r="H15" s="3">
-        <v>603600</v>
+        <v>590700</v>
       </c>
       <c r="I15" s="3">
-        <v>2012900</v>
+        <v>1969800</v>
       </c>
       <c r="J15" s="3">
-        <v>615600</v>
+        <v>602500</v>
       </c>
       <c r="K15" s="3">
         <v>658900</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -976,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10205600</v>
+        <v>9987400</v>
       </c>
       <c r="E17" s="3">
-        <v>10256100</v>
+        <v>10036800</v>
       </c>
       <c r="F17" s="3">
-        <v>10119200</v>
+        <v>9902900</v>
       </c>
       <c r="G17" s="3">
-        <v>10104600</v>
+        <v>9888600</v>
       </c>
       <c r="H17" s="3">
-        <v>11010100</v>
+        <v>10774700</v>
       </c>
       <c r="I17" s="3">
-        <v>11795500</v>
+        <v>11543300</v>
       </c>
       <c r="J17" s="3">
-        <v>11347800</v>
+        <v>11105200</v>
       </c>
       <c r="K17" s="3">
         <v>11979400</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1559600</v>
+        <v>1526200</v>
       </c>
       <c r="E18" s="3">
-        <v>1014300</v>
+        <v>992600</v>
       </c>
       <c r="F18" s="3">
-        <v>878500</v>
+        <v>859700</v>
       </c>
       <c r="G18" s="3">
-        <v>1160100</v>
+        <v>1135300</v>
       </c>
       <c r="H18" s="3">
-        <v>448800</v>
+        <v>439200</v>
       </c>
       <c r="I18" s="3">
-        <v>56100</v>
+        <v>54900</v>
       </c>
       <c r="J18" s="3">
-        <v>786500</v>
+        <v>769700</v>
       </c>
       <c r="K18" s="3">
         <v>891300</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-48200</v>
+        <v>-47200</v>
       </c>
       <c r="E20" s="3">
-        <v>-23600</v>
+        <v>-23100</v>
       </c>
       <c r="F20" s="3">
-        <v>-101000</v>
+        <v>-98800</v>
       </c>
       <c r="G20" s="3">
-        <v>-46000</v>
+        <v>-45000</v>
       </c>
       <c r="H20" s="3">
-        <v>-78500</v>
+        <v>-76900</v>
       </c>
       <c r="I20" s="3">
-        <v>249100</v>
+        <v>243800</v>
       </c>
       <c r="J20" s="3">
-        <v>375200</v>
+        <v>367200</v>
       </c>
       <c r="K20" s="3">
         <v>-225400</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2050000</v>
+        <v>2005800</v>
       </c>
       <c r="E21" s="3">
-        <v>1569900</v>
+        <v>1535900</v>
       </c>
       <c r="F21" s="3">
-        <v>1225200</v>
+        <v>1198600</v>
       </c>
       <c r="G21" s="3">
-        <v>1972300</v>
+        <v>1929400</v>
       </c>
       <c r="H21" s="3">
-        <v>1231800</v>
+        <v>1204700</v>
       </c>
       <c r="I21" s="3">
-        <v>1642400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1760000</v>
+        <v>1606200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="3">
         <v>1338500</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>153700</v>
+        <v>150400</v>
       </c>
       <c r="E22" s="3">
-        <v>158200</v>
+        <v>154800</v>
       </c>
       <c r="F22" s="3">
-        <v>170500</v>
+        <v>166900</v>
       </c>
       <c r="G22" s="3">
-        <v>200800</v>
+        <v>196500</v>
       </c>
       <c r="H22" s="3">
-        <v>235600</v>
+        <v>230600</v>
       </c>
       <c r="I22" s="3">
-        <v>517200</v>
+        <v>506200</v>
       </c>
       <c r="J22" s="3">
-        <v>622000</v>
+        <v>608700</v>
       </c>
       <c r="K22" s="3">
         <v>171800</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1357600</v>
+        <v>1328600</v>
       </c>
       <c r="E23" s="3">
-        <v>832500</v>
+        <v>814700</v>
       </c>
       <c r="F23" s="3">
-        <v>607000</v>
+        <v>594000</v>
       </c>
       <c r="G23" s="3">
-        <v>913300</v>
+        <v>893800</v>
       </c>
       <c r="H23" s="3">
-        <v>134600</v>
+        <v>131800</v>
       </c>
       <c r="I23" s="3">
-        <v>-212100</v>
+        <v>-207500</v>
       </c>
       <c r="J23" s="3">
-        <v>539700</v>
+        <v>528100</v>
       </c>
       <c r="K23" s="3">
         <v>494100</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>248000</v>
+        <v>242700</v>
       </c>
       <c r="E24" s="3">
-        <v>143600</v>
+        <v>140500</v>
       </c>
       <c r="F24" s="3">
-        <v>150300</v>
+        <v>147100</v>
       </c>
       <c r="G24" s="3">
-        <v>34800</v>
+        <v>34000</v>
       </c>
       <c r="H24" s="3">
-        <v>33700</v>
+        <v>32900</v>
       </c>
       <c r="I24" s="3">
-        <v>-132400</v>
+        <v>-129600</v>
       </c>
       <c r="J24" s="3">
-        <v>-10100</v>
+        <v>-9900</v>
       </c>
       <c r="K24" s="3">
         <v>92400</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1109600</v>
+        <v>1085900</v>
       </c>
       <c r="E26" s="3">
-        <v>688900</v>
+        <v>674200</v>
       </c>
       <c r="F26" s="3">
-        <v>456600</v>
+        <v>446900</v>
       </c>
       <c r="G26" s="3">
-        <v>878500</v>
+        <v>859700</v>
       </c>
       <c r="H26" s="3">
-        <v>101000</v>
+        <v>98800</v>
       </c>
       <c r="I26" s="3">
-        <v>-79700</v>
+        <v>-78000</v>
       </c>
       <c r="J26" s="3">
-        <v>549800</v>
+        <v>538000</v>
       </c>
       <c r="K26" s="3">
         <v>401700</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1136600</v>
+        <v>1112300</v>
       </c>
       <c r="E27" s="3">
-        <v>701200</v>
+        <v>686300</v>
       </c>
       <c r="F27" s="3">
-        <v>519500</v>
+        <v>508400</v>
       </c>
       <c r="G27" s="3">
-        <v>905400</v>
+        <v>886100</v>
       </c>
       <c r="H27" s="3">
-        <v>111100</v>
+        <v>108700</v>
       </c>
       <c r="I27" s="3">
-        <v>-59500</v>
+        <v>-58200</v>
       </c>
       <c r="J27" s="3">
-        <v>538600</v>
+        <v>527000</v>
       </c>
       <c r="K27" s="3">
         <v>398700</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>48200</v>
+        <v>47200</v>
       </c>
       <c r="E32" s="3">
-        <v>23600</v>
+        <v>23100</v>
       </c>
       <c r="F32" s="3">
-        <v>101000</v>
+        <v>98800</v>
       </c>
       <c r="G32" s="3">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="H32" s="3">
-        <v>78500</v>
+        <v>76900</v>
       </c>
       <c r="I32" s="3">
-        <v>-249100</v>
+        <v>-243800</v>
       </c>
       <c r="J32" s="3">
-        <v>-375200</v>
+        <v>-367200</v>
       </c>
       <c r="K32" s="3">
         <v>225400</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1136600</v>
+        <v>1112300</v>
       </c>
       <c r="E33" s="3">
-        <v>701200</v>
+        <v>686300</v>
       </c>
       <c r="F33" s="3">
-        <v>519500</v>
+        <v>508400</v>
       </c>
       <c r="G33" s="3">
-        <v>905400</v>
+        <v>886100</v>
       </c>
       <c r="H33" s="3">
-        <v>111100</v>
+        <v>108700</v>
       </c>
       <c r="I33" s="3">
-        <v>-59500</v>
+        <v>-58200</v>
       </c>
       <c r="J33" s="3">
-        <v>538600</v>
+        <v>527000</v>
       </c>
       <c r="K33" s="3">
         <v>398700</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1500,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1136600</v>
+        <v>1112300</v>
       </c>
       <c r="E35" s="3">
-        <v>701200</v>
+        <v>686300</v>
       </c>
       <c r="F35" s="3">
-        <v>519500</v>
+        <v>508400</v>
       </c>
       <c r="G35" s="3">
-        <v>905400</v>
+        <v>886100</v>
       </c>
       <c r="H35" s="3">
-        <v>111100</v>
+        <v>108700</v>
       </c>
       <c r="I35" s="3">
-        <v>-59500</v>
+        <v>-58200</v>
       </c>
       <c r="J35" s="3">
-        <v>538600</v>
+        <v>527000</v>
       </c>
       <c r="K35" s="3">
         <v>398700</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1593,37 +1561,37 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1267800</v>
+        <v>1240700</v>
       </c>
       <c r="E41" s="3">
-        <v>681000</v>
+        <v>666500</v>
       </c>
       <c r="F41" s="3">
-        <v>1069300</v>
+        <v>1046400</v>
       </c>
       <c r="G41" s="3">
-        <v>906600</v>
+        <v>887200</v>
       </c>
       <c r="H41" s="3">
-        <v>1622400</v>
+        <v>1587700</v>
       </c>
       <c r="I41" s="3">
-        <v>2325900</v>
+        <v>2276200</v>
       </c>
       <c r="J41" s="3">
-        <v>2155300</v>
+        <v>2109300</v>
       </c>
       <c r="K41" s="3">
         <v>1336700</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1653,217 +1621,217 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1632500</v>
+        <v>1543800</v>
       </c>
       <c r="E43" s="3">
-        <v>1446200</v>
+        <v>1415300</v>
       </c>
       <c r="F43" s="3">
-        <v>1354200</v>
+        <v>1325300</v>
       </c>
       <c r="G43" s="3">
-        <v>1409200</v>
+        <v>1379100</v>
       </c>
       <c r="H43" s="3">
-        <v>1628000</v>
+        <v>1593200</v>
       </c>
       <c r="I43" s="3">
-        <v>3520800</v>
+        <v>3445500</v>
       </c>
       <c r="J43" s="3">
-        <v>4217600</v>
+        <v>4127400</v>
       </c>
       <c r="K43" s="3">
         <v>2157600</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1758200</v>
+        <v>1720600</v>
       </c>
       <c r="E44" s="3">
-        <v>1482100</v>
+        <v>1450500</v>
       </c>
       <c r="F44" s="3">
-        <v>1510200</v>
+        <v>1477900</v>
       </c>
       <c r="G44" s="3">
+        <v>1507600</v>
+      </c>
+      <c r="H44" s="3">
         <v>1540500</v>
       </c>
-      <c r="H44" s="3">
-        <v>1574200</v>
-      </c>
       <c r="I44" s="3">
-        <v>3242600</v>
+        <v>3173200</v>
       </c>
       <c r="J44" s="3">
-        <v>3329500</v>
+        <v>3258300</v>
       </c>
       <c r="K44" s="3">
         <v>1794400</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>107700</v>
+        <v>159200</v>
       </c>
       <c r="E45" s="3">
-        <v>133500</v>
+        <v>130700</v>
       </c>
       <c r="F45" s="3">
-        <v>135800</v>
+        <v>132900</v>
       </c>
       <c r="G45" s="3">
-        <v>142500</v>
+        <v>139400</v>
       </c>
       <c r="H45" s="3">
-        <v>129000</v>
+        <v>126300</v>
       </c>
       <c r="I45" s="3">
-        <v>148100</v>
+        <v>144900</v>
       </c>
       <c r="J45" s="3">
-        <v>189800</v>
+        <v>185800</v>
       </c>
       <c r="K45" s="3">
         <v>122300</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>4766200</v>
+        <v>4664300</v>
       </c>
       <c r="E46" s="3">
-        <v>3743000</v>
+        <v>3662900</v>
       </c>
       <c r="F46" s="3">
-        <v>4069500</v>
+        <v>3982400</v>
       </c>
       <c r="G46" s="3">
-        <v>3998800</v>
+        <v>3913300</v>
       </c>
       <c r="H46" s="3">
-        <v>4953600</v>
+        <v>4847700</v>
       </c>
       <c r="I46" s="3">
-        <v>5871400</v>
+        <v>5745800</v>
       </c>
       <c r="J46" s="3">
-        <v>6029600</v>
+        <v>5900700</v>
       </c>
       <c r="K46" s="3">
         <v>5411000</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2506500</v>
+        <v>2452900</v>
       </c>
       <c r="E47" s="3">
-        <v>2256300</v>
+        <v>2208100</v>
       </c>
       <c r="F47" s="3">
-        <v>2141900</v>
+        <v>2096100</v>
       </c>
       <c r="G47" s="3">
-        <v>2016200</v>
+        <v>1973100</v>
       </c>
       <c r="H47" s="3">
-        <v>1795200</v>
+        <v>1756800</v>
       </c>
       <c r="I47" s="3">
-        <v>1642600</v>
+        <v>1607500</v>
       </c>
       <c r="J47" s="3">
-        <v>1819900</v>
+        <v>1781000</v>
       </c>
       <c r="K47" s="3">
         <v>3240400</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>6385200</v>
+        <v>6248700</v>
       </c>
       <c r="E48" s="3">
-        <v>6460400</v>
+        <v>6322300</v>
       </c>
       <c r="F48" s="3">
-        <v>6844100</v>
+        <v>6697800</v>
       </c>
       <c r="G48" s="3">
-        <v>7031500</v>
+        <v>6881200</v>
       </c>
       <c r="H48" s="3">
-        <v>6801500</v>
+        <v>6656100</v>
       </c>
       <c r="I48" s="3">
-        <v>13698400</v>
+        <v>13405500</v>
       </c>
       <c r="J48" s="3">
-        <v>13811000</v>
+        <v>13515700</v>
       </c>
       <c r="K48" s="3">
         <v>6051100</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>586800</v>
+        <v>574300</v>
       </c>
       <c r="E49" s="3">
-        <v>536300</v>
+        <v>524800</v>
       </c>
       <c r="F49" s="3">
-        <v>484700</v>
+        <v>474300</v>
       </c>
       <c r="G49" s="3">
-        <v>475700</v>
+        <v>465600</v>
       </c>
       <c r="H49" s="3">
-        <v>478000</v>
+        <v>467700</v>
       </c>
       <c r="I49" s="3">
-        <v>331000</v>
+        <v>323900</v>
       </c>
       <c r="J49" s="3">
-        <v>370400</v>
+        <v>362400</v>
       </c>
       <c r="K49" s="3">
         <v>381600</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1923,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>171700</v>
+        <v>168000</v>
       </c>
       <c r="E52" s="3">
-        <v>209800</v>
+        <v>205300</v>
       </c>
       <c r="F52" s="3">
-        <v>289500</v>
+        <v>283300</v>
       </c>
       <c r="G52" s="3">
-        <v>346700</v>
+        <v>339300</v>
       </c>
       <c r="H52" s="3">
-        <v>386000</v>
+        <v>377700</v>
       </c>
       <c r="I52" s="3">
-        <v>327600</v>
+        <v>320600</v>
       </c>
       <c r="J52" s="3">
-        <v>255800</v>
+        <v>250300</v>
       </c>
       <c r="K52" s="3">
         <v>174300</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>14416400</v>
+        <v>14108200</v>
       </c>
       <c r="E54" s="3">
-        <v>13205800</v>
+        <v>12923500</v>
       </c>
       <c r="F54" s="3">
-        <v>13829600</v>
+        <v>13533900</v>
       </c>
       <c r="G54" s="3">
-        <v>13868900</v>
+        <v>13572400</v>
       </c>
       <c r="H54" s="3">
-        <v>14414200</v>
+        <v>14106000</v>
       </c>
       <c r="I54" s="3">
-        <v>15093000</v>
+        <v>14770300</v>
       </c>
       <c r="J54" s="3">
-        <v>16036600</v>
+        <v>15693700</v>
       </c>
       <c r="K54" s="3">
         <v>15258500</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2027,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2041,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1550600</v>
+        <v>1517400</v>
       </c>
       <c r="E57" s="3">
-        <v>1500100</v>
+        <v>1468000</v>
       </c>
       <c r="F57" s="3">
-        <v>1390100</v>
+        <v>1360400</v>
       </c>
       <c r="G57" s="3">
-        <v>1349800</v>
+        <v>1320900</v>
       </c>
       <c r="H57" s="3">
-        <v>1230800</v>
+        <v>1204500</v>
       </c>
       <c r="I57" s="3">
-        <v>1270100</v>
+        <v>1242900</v>
       </c>
       <c r="J57" s="3">
-        <v>1196500</v>
+        <v>1170900</v>
       </c>
       <c r="K57" s="3">
         <v>1173600</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1089500</v>
+        <v>1066200</v>
       </c>
       <c r="E58" s="3">
-        <v>1008700</v>
+        <v>987100</v>
       </c>
       <c r="F58" s="3">
-        <v>1131000</v>
+        <v>1106800</v>
       </c>
       <c r="G58" s="3">
-        <v>809000</v>
+        <v>791700</v>
       </c>
       <c r="H58" s="3">
-        <v>1530400</v>
+        <v>673100</v>
       </c>
       <c r="I58" s="3">
-        <v>1596600</v>
+        <v>745500</v>
       </c>
       <c r="J58" s="3">
-        <v>1695900</v>
+        <v>893200</v>
       </c>
       <c r="K58" s="3">
         <v>1213700</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>890900</v>
+        <v>871800</v>
       </c>
       <c r="E59" s="3">
-        <v>815700</v>
+        <v>798200</v>
       </c>
       <c r="F59" s="3">
-        <v>832500</v>
+        <v>814700</v>
       </c>
       <c r="G59" s="3">
-        <v>887500</v>
+        <v>868500</v>
       </c>
       <c r="H59" s="3">
-        <v>747200</v>
+        <v>1555900</v>
       </c>
       <c r="I59" s="3">
-        <v>2834100</v>
+        <v>3590500</v>
       </c>
       <c r="J59" s="3">
-        <v>2644800</v>
+        <v>3354600</v>
       </c>
       <c r="K59" s="3">
         <v>883200</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3530900</v>
+        <v>3455400</v>
       </c>
       <c r="E60" s="3">
-        <v>3324500</v>
+        <v>3253400</v>
       </c>
       <c r="F60" s="3">
-        <v>3353600</v>
+        <v>3281900</v>
       </c>
       <c r="G60" s="3">
-        <v>3046200</v>
+        <v>2981100</v>
       </c>
       <c r="H60" s="3">
-        <v>3508500</v>
+        <v>3433400</v>
       </c>
       <c r="I60" s="3">
-        <v>3519700</v>
+        <v>3444400</v>
       </c>
       <c r="J60" s="3">
-        <v>2959800</v>
+        <v>2896500</v>
       </c>
       <c r="K60" s="3">
         <v>3270500</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2541300</v>
+        <v>2487000</v>
       </c>
       <c r="E61" s="3">
-        <v>2295600</v>
+        <v>2246500</v>
       </c>
       <c r="F61" s="3">
-        <v>2978900</v>
+        <v>2915200</v>
       </c>
       <c r="G61" s="3">
-        <v>3749700</v>
+        <v>3669500</v>
       </c>
       <c r="H61" s="3">
-        <v>3960600</v>
+        <v>3875900</v>
       </c>
       <c r="I61" s="3">
-        <v>4713500</v>
+        <v>4612700</v>
       </c>
       <c r="J61" s="3">
-        <v>5384400</v>
+        <v>5269300</v>
       </c>
       <c r="K61" s="3">
         <v>3919800</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>791000</v>
+        <v>774100</v>
       </c>
       <c r="E62" s="3">
-        <v>792100</v>
+        <v>775200</v>
       </c>
       <c r="F62" s="3">
-        <v>913300</v>
+        <v>893800</v>
       </c>
       <c r="G62" s="3">
-        <v>887500</v>
+        <v>868500</v>
       </c>
       <c r="H62" s="3">
-        <v>1069300</v>
+        <v>1046400</v>
       </c>
       <c r="I62" s="3">
-        <v>943600</v>
+        <v>923400</v>
       </c>
       <c r="J62" s="3">
-        <v>1274600</v>
+        <v>1247300</v>
       </c>
       <c r="K62" s="3">
         <v>1072500</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2251,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2311,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>6883400</v>
+        <v>6736200</v>
       </c>
       <c r="E66" s="3">
-        <v>6464900</v>
+        <v>6326700</v>
       </c>
       <c r="F66" s="3">
-        <v>7315400</v>
+        <v>7159000</v>
       </c>
       <c r="G66" s="3">
-        <v>7823600</v>
+        <v>7656400</v>
       </c>
       <c r="H66" s="3">
-        <v>8725700</v>
+        <v>8539100</v>
       </c>
       <c r="I66" s="3">
-        <v>9244100</v>
+        <v>9046400</v>
       </c>
       <c r="J66" s="3">
-        <v>9562700</v>
+        <v>9358300</v>
       </c>
       <c r="K66" s="3">
         <v>8365000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2355,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2385,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2415,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2445,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2475,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>5281200</v>
+        <v>5168300</v>
       </c>
       <c r="E72" s="3">
-        <v>4526100</v>
+        <v>4429300</v>
       </c>
       <c r="F72" s="3">
-        <v>4095300</v>
+        <v>4007700</v>
       </c>
       <c r="G72" s="3">
-        <v>3921400</v>
+        <v>3837500</v>
       </c>
       <c r="H72" s="3">
-        <v>3256000</v>
+        <v>3186400</v>
       </c>
       <c r="I72" s="3">
-        <v>3791200</v>
+        <v>3710100</v>
       </c>
       <c r="J72" s="3">
-        <v>7633500</v>
+        <v>7470200</v>
       </c>
       <c r="K72" s="3">
         <v>3874600</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2535,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2565,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2595,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>7533000</v>
+        <v>7372000</v>
       </c>
       <c r="E76" s="3">
-        <v>6740900</v>
+        <v>6596800</v>
       </c>
       <c r="F76" s="3">
-        <v>6514300</v>
+        <v>6375000</v>
       </c>
       <c r="G76" s="3">
-        <v>6045300</v>
+        <v>5916000</v>
       </c>
       <c r="H76" s="3">
-        <v>5688500</v>
+        <v>5566900</v>
       </c>
       <c r="I76" s="3">
-        <v>5848900</v>
+        <v>5723900</v>
       </c>
       <c r="J76" s="3">
-        <v>6473900</v>
+        <v>6335500</v>
       </c>
       <c r="K76" s="3">
         <v>6893400</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2655,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2690,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1136600</v>
+        <v>1112300</v>
       </c>
       <c r="E81" s="3">
-        <v>701200</v>
+        <v>686300</v>
       </c>
       <c r="F81" s="3">
-        <v>519500</v>
+        <v>508400</v>
       </c>
       <c r="G81" s="3">
-        <v>905400</v>
+        <v>886100</v>
       </c>
       <c r="H81" s="3">
-        <v>111100</v>
+        <v>108700</v>
       </c>
       <c r="I81" s="3">
-        <v>-59500</v>
+        <v>-58200</v>
       </c>
       <c r="J81" s="3">
-        <v>538600</v>
+        <v>527000</v>
       </c>
       <c r="K81" s="3">
         <v>398700</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2734,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>537400</v>
+        <v>525900</v>
       </c>
       <c r="E83" s="3">
-        <v>577800</v>
+        <v>565500</v>
       </c>
       <c r="F83" s="3">
-        <v>446600</v>
+        <v>437000</v>
       </c>
       <c r="G83" s="3">
-        <v>856100</v>
+        <v>837800</v>
       </c>
       <c r="H83" s="3">
-        <v>859400</v>
+        <v>841100</v>
       </c>
       <c r="I83" s="3">
-        <v>1334000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>596900</v>
+        <v>1305500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K83" s="3">
         <v>672100</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2794,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2824,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2854,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2884,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2914,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1225200</v>
+        <v>1199000</v>
       </c>
       <c r="E89" s="3">
-        <v>1348600</v>
+        <v>1319800</v>
       </c>
       <c r="F89" s="3">
-        <v>1525900</v>
+        <v>1493300</v>
       </c>
       <c r="G89" s="3">
-        <v>1364300</v>
+        <v>1335200</v>
       </c>
       <c r="H89" s="3">
-        <v>996300</v>
+        <v>975000</v>
       </c>
       <c r="I89" s="3">
-        <v>1138800</v>
+        <v>1114500</v>
       </c>
       <c r="J89" s="3">
-        <v>1050200</v>
+        <v>1027700</v>
       </c>
       <c r="K89" s="3">
         <v>817900</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2958,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-589000</v>
+        <v>-576500</v>
       </c>
       <c r="E91" s="3">
-        <v>-738300</v>
+        <v>-722500</v>
       </c>
       <c r="F91" s="3">
-        <v>-895300</v>
+        <v>-876200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1072600</v>
+        <v>-1049700</v>
       </c>
       <c r="H91" s="3">
-        <v>-883000</v>
+        <v>-864100</v>
       </c>
       <c r="I91" s="3">
-        <v>-830300</v>
+        <v>-812500</v>
       </c>
       <c r="J91" s="3">
-        <v>-629400</v>
+        <v>-616000</v>
       </c>
       <c r="K91" s="3">
         <v>-460600</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3018,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3048,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-557600</v>
+        <v>-545700</v>
       </c>
       <c r="E94" s="3">
-        <v>-780900</v>
+        <v>-764200</v>
       </c>
       <c r="F94" s="3">
-        <v>-509400</v>
+        <v>-498500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1064800</v>
+        <v>-1042000</v>
       </c>
       <c r="H94" s="3">
-        <v>-837000</v>
+        <v>-819100</v>
       </c>
       <c r="I94" s="3">
-        <v>-596900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-767400</v>
+        <v>-584100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K94" s="3">
         <v>-639800</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3092,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-362400</v>
+        <v>-354700</v>
       </c>
       <c r="E96" s="3">
-        <v>-327600</v>
+        <v>-320600</v>
       </c>
       <c r="F96" s="3">
-        <v>-291700</v>
+        <v>-285500</v>
       </c>
       <c r="G96" s="3">
-        <v>-265900</v>
+        <v>-260200</v>
       </c>
       <c r="H96" s="3">
-        <v>-265900</v>
+        <v>-260200</v>
       </c>
       <c r="I96" s="3">
-        <v>-265900</v>
+        <v>-260200</v>
       </c>
       <c r="J96" s="3">
-        <v>-265900</v>
+        <v>-260200</v>
       </c>
       <c r="K96" s="3">
         <v>-231500</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3152,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3182,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3212,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-81900</v>
+        <v>-80200</v>
       </c>
       <c r="E100" s="3">
-        <v>-930100</v>
+        <v>-910200</v>
       </c>
       <c r="F100" s="3">
-        <v>-862800</v>
+        <v>-844400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1046800</v>
+        <v>-1024400</v>
       </c>
       <c r="H100" s="3">
-        <v>-986200</v>
+        <v>-965100</v>
       </c>
       <c r="I100" s="3">
-        <v>-350100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>540800</v>
+        <v>-342600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K100" s="3">
         <v>-107100</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E101" s="3">
-        <v>-25800</v>
+        <v>-25300</v>
       </c>
       <c r="F101" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="G101" s="3">
-        <v>32500</v>
+        <v>31800</v>
       </c>
       <c r="H101" s="3">
-        <v>134600</v>
+        <v>131800</v>
       </c>
       <c r="I101" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-25800</v>
+        <v>-29600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K101" s="3">
         <v>-34400</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>590200</v>
+        <v>577500</v>
       </c>
       <c r="E102" s="3">
-        <v>-388200</v>
+        <v>-379900</v>
       </c>
       <c r="F102" s="3">
-        <v>159300</v>
+        <v>155900</v>
       </c>
       <c r="G102" s="3">
-        <v>-714700</v>
+        <v>-699400</v>
       </c>
       <c r="H102" s="3">
-        <v>-692300</v>
+        <v>-677500</v>
       </c>
       <c r="I102" s="3">
-        <v>161600</v>
+        <v>158100</v>
       </c>
       <c r="J102" s="3">
-        <v>797700</v>
+        <v>780700</v>
       </c>
       <c r="K102" s="3">
         <v>36600</v>
